--- a/Code/Results/Cases/Case_5_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_96/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9835558425890107</v>
+        <v>1.030983958090182</v>
       </c>
       <c r="D2">
-        <v>1.005033639623518</v>
+        <v>1.03347033734724</v>
       </c>
       <c r="E2">
-        <v>0.991481355865876</v>
+        <v>1.030532910884496</v>
       </c>
       <c r="F2">
-        <v>0.993428345290662</v>
+        <v>1.039997854721432</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038822149453216</v>
+        <v>1.033661287413532</v>
       </c>
       <c r="J2">
-        <v>1.006239771972937</v>
+        <v>1.036122189260779</v>
       </c>
       <c r="K2">
-        <v>1.016423290477776</v>
+        <v>1.036272593964152</v>
       </c>
       <c r="L2">
-        <v>1.003060658691755</v>
+        <v>1.033343647888147</v>
       </c>
       <c r="M2">
-        <v>1.004979999354939</v>
+        <v>1.042781452545054</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9916433499634475</v>
+        <v>1.032530844451919</v>
       </c>
       <c r="D3">
-        <v>1.01102569990612</v>
+        <v>1.034611496746893</v>
       </c>
       <c r="E3">
-        <v>0.9982523865150801</v>
+        <v>1.031869280047802</v>
       </c>
       <c r="F3">
-        <v>1.001778751520502</v>
+        <v>1.041657398511187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041619995248687</v>
+        <v>1.034075149783619</v>
       </c>
       <c r="J3">
-        <v>1.012364447412601</v>
+        <v>1.037307716553154</v>
       </c>
       <c r="K3">
-        <v>1.021519422122424</v>
+        <v>1.037221853781275</v>
       </c>
       <c r="L3">
-        <v>1.008907677328158</v>
+        <v>1.034486974139655</v>
       </c>
       <c r="M3">
-        <v>1.012388923370021</v>
+        <v>1.044249094984181</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9967018645709865</v>
+        <v>1.033529646683626</v>
       </c>
       <c r="D4">
-        <v>1.014775471643582</v>
+        <v>1.03534786854517</v>
       </c>
       <c r="E4">
-        <v>1.002493437072273</v>
+        <v>1.032732261303948</v>
       </c>
       <c r="F4">
-        <v>1.007005964705533</v>
+        <v>1.042729275299207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043353720403898</v>
+        <v>1.03434033643093</v>
       </c>
       <c r="J4">
-        <v>1.016190314921128</v>
+        <v>1.038072369692495</v>
       </c>
       <c r="K4">
-        <v>1.024698781392417</v>
+        <v>1.037833483536125</v>
       </c>
       <c r="L4">
-        <v>1.012561861373255</v>
+        <v>1.035224517963617</v>
       </c>
       <c r="M4">
-        <v>1.017020562958496</v>
+        <v>1.04519634062249</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9987892481806705</v>
+        <v>1.033949041696737</v>
       </c>
       <c r="D5">
-        <v>1.016323120139671</v>
+        <v>1.035656958549479</v>
       </c>
       <c r="E5">
-        <v>1.004244811217548</v>
+        <v>1.03309465012475</v>
       </c>
       <c r="F5">
-        <v>1.009163969046257</v>
+        <v>1.043179434140056</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044065162830265</v>
+        <v>1.034451199188477</v>
       </c>
       <c r="J5">
-        <v>1.017767786812638</v>
+        <v>1.038393247996775</v>
       </c>
       <c r="K5">
-        <v>1.02600868836183</v>
+        <v>1.038089995106867</v>
       </c>
       <c r="L5">
-        <v>1.01406895212801</v>
+        <v>1.035534046409349</v>
       </c>
       <c r="M5">
-        <v>1.018931178807904</v>
+        <v>1.045593993815399</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.999137500270422</v>
+        <v>1.034019430851429</v>
       </c>
       <c r="D6">
-        <v>1.016581339195574</v>
+        <v>1.035708828117649</v>
       </c>
       <c r="E6">
-        <v>1.004537078832888</v>
+        <v>1.033155473073588</v>
       </c>
       <c r="F6">
-        <v>1.009524062120343</v>
+        <v>1.043254991236681</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044183621540739</v>
+        <v>1.034469777166203</v>
       </c>
       <c r="J6">
-        <v>1.018030890555335</v>
+        <v>1.038447090974308</v>
       </c>
       <c r="K6">
-        <v>1.026227105697092</v>
+        <v>1.038133028487198</v>
       </c>
       <c r="L6">
-        <v>1.014320340658448</v>
+        <v>1.035585986434168</v>
       </c>
       <c r="M6">
-        <v>1.019249902220859</v>
+        <v>1.045660728460563</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9967299071392279</v>
+        <v>1.033535252618239</v>
       </c>
       <c r="D7">
-        <v>1.014796262175011</v>
+        <v>1.035352000501901</v>
       </c>
       <c r="E7">
-        <v>1.00251696051843</v>
+        <v>1.032737105156614</v>
       </c>
       <c r="F7">
-        <v>1.007034952042561</v>
+        <v>1.042735292130592</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043363293987944</v>
+        <v>1.034341820223596</v>
       </c>
       <c r="J7">
-        <v>1.016211512273192</v>
+        <v>1.038076659561133</v>
       </c>
       <c r="K7">
-        <v>1.02471638732957</v>
+        <v>1.037836913475565</v>
       </c>
       <c r="L7">
-        <v>1.012582111381777</v>
+        <v>1.035228655991103</v>
       </c>
       <c r="M7">
-        <v>1.017046233266933</v>
+        <v>1.045201656307148</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.98632685808243</v>
+        <v>1.031507184081532</v>
       </c>
       <c r="D8">
-        <v>1.007086200223708</v>
+        <v>1.03385642266178</v>
       </c>
       <c r="E8">
-        <v>0.9937999740862732</v>
+        <v>1.03098490787937</v>
       </c>
       <c r="F8">
-        <v>0.9962885259257888</v>
+        <v>1.040559117484386</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03978416363252</v>
+        <v>1.033801696443236</v>
       </c>
       <c r="J8">
-        <v>1.00833926310186</v>
+        <v>1.036523358187136</v>
       </c>
       <c r="K8">
-        <v>1.018171032411278</v>
+        <v>1.036593943748866</v>
       </c>
       <c r="L8">
-        <v>1.005064588835426</v>
+        <v>1.033730513620602</v>
       </c>
       <c r="M8">
-        <v>1.007519007307736</v>
+        <v>1.043277955587042</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.966526179363229</v>
+        <v>1.02791664998768</v>
       </c>
       <c r="D9">
-        <v>0.9924343027488673</v>
+        <v>1.031205151903587</v>
       </c>
       <c r="E9">
-        <v>0.9772633563729457</v>
+        <v>1.027883642375357</v>
       </c>
       <c r="F9">
-        <v>0.9758699928770413</v>
+        <v>1.036708928402297</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032842541272215</v>
+        <v>1.03282979874303</v>
       </c>
       <c r="J9">
-        <v>0.9933189978390888</v>
+        <v>1.033767041934384</v>
       </c>
       <c r="K9">
-        <v>1.00565133245762</v>
+        <v>1.034383450839383</v>
       </c>
       <c r="L9">
-        <v>0.9907364154742814</v>
+        <v>1.03107292608104</v>
       </c>
       <c r="M9">
-        <v>0.9893670830763586</v>
+        <v>1.03986919529738</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9521254420077631</v>
+        <v>1.025511015586109</v>
       </c>
       <c r="D10">
-        <v>0.981806089552518</v>
+        <v>1.029426560094022</v>
       </c>
       <c r="E10">
-        <v>0.9652840691538831</v>
+        <v>1.025806446434117</v>
       </c>
       <c r="F10">
-        <v>0.9610456253745465</v>
+        <v>1.034131035340712</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027711462057857</v>
+        <v>1.032168132644772</v>
       </c>
       <c r="J10">
-        <v>0.9823762672111178</v>
+        <v>1.03191610633589</v>
       </c>
       <c r="K10">
-        <v>0.9965117988220198</v>
+        <v>1.032895810379664</v>
       </c>
       <c r="L10">
-        <v>0.9803097557064863</v>
+        <v>1.029288865143229</v>
       </c>
       <c r="M10">
-        <v>0.9761557297836394</v>
+        <v>1.037583324822665</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9455472587318846</v>
+        <v>1.024466373482248</v>
       </c>
       <c r="D11">
-        <v>0.9769610100037147</v>
+        <v>1.028653691150027</v>
       </c>
       <c r="E11">
-        <v>0.9598259716818536</v>
+        <v>1.024904589467655</v>
       </c>
       <c r="F11">
-        <v>0.9542803720633204</v>
+        <v>1.033011993070014</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025349514586958</v>
+        <v>1.031878321269049</v>
       </c>
       <c r="J11">
-        <v>0.977374910396636</v>
+        <v>1.031111346425617</v>
       </c>
       <c r="K11">
-        <v>0.9923308916340621</v>
+        <v>1.032248244067888</v>
       </c>
       <c r="L11">
-        <v>0.9755474754984661</v>
+        <v>1.028513318877577</v>
       </c>
       <c r="M11">
-        <v>0.970119259806296</v>
+        <v>1.036590209124823</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9430464582380576</v>
+        <v>1.024077885819451</v>
       </c>
       <c r="D12">
-        <v>0.9751208701698671</v>
+        <v>1.028366195528604</v>
       </c>
       <c r="E12">
-        <v>0.9577533561862457</v>
+        <v>1.024569226801413</v>
       </c>
       <c r="F12">
-        <v>0.9517094521910563</v>
+        <v>1.032595897349333</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024449013994903</v>
+        <v>1.031770171827752</v>
       </c>
       <c r="J12">
-        <v>0.97547331543588</v>
+        <v>1.030811918678439</v>
       </c>
       <c r="K12">
-        <v>0.9907407578649927</v>
+        <v>1.032007189550397</v>
       </c>
       <c r="L12">
-        <v>0.9737373023172828</v>
+        <v>1.028224781420289</v>
       </c>
       <c r="M12">
-        <v>0.9678242323044763</v>
+        <v>1.036220811077866</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.943585589981477</v>
+        <v>1.024161238806415</v>
       </c>
       <c r="D13">
-        <v>0.9755174878331605</v>
+        <v>1.028427883345573</v>
       </c>
       <c r="E13">
-        <v>0.9582000668286061</v>
+        <v>1.024641180259093</v>
       </c>
       <c r="F13">
-        <v>0.9522636549911859</v>
+        <v>1.032685171129838</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024643260458778</v>
+        <v>1.031793392967033</v>
       </c>
       <c r="J13">
-        <v>0.9758832766053832</v>
+        <v>1.030876169909632</v>
       </c>
       <c r="K13">
-        <v>0.991083592476008</v>
+        <v>1.032058920195219</v>
       </c>
       <c r="L13">
-        <v>0.9741275298494637</v>
+        <v>1.028286694872373</v>
       </c>
       <c r="M13">
-        <v>0.9683190090807641</v>
+        <v>1.03630007151617</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9453417497198059</v>
+        <v>1.024434270448638</v>
       </c>
       <c r="D14">
-        <v>0.9768097540068128</v>
+        <v>1.028629935239421</v>
       </c>
       <c r="E14">
-        <v>0.9596556001719281</v>
+        <v>1.024876875946869</v>
       </c>
       <c r="F14">
-        <v>0.954069080434545</v>
+        <v>1.032977607390536</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025275564971033</v>
+        <v>1.031869391837529</v>
       </c>
       <c r="J14">
-        <v>0.9772186464950491</v>
+        <v>1.031086605972583</v>
       </c>
       <c r="K14">
-        <v>0.9922002315402147</v>
+        <v>1.032228329068836</v>
       </c>
       <c r="L14">
-        <v>0.9753987134011233</v>
+        <v>1.028489477819896</v>
       </c>
       <c r="M14">
-        <v>0.9699306636187076</v>
+        <v>1.036559685054504</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9464159825537407</v>
+        <v>1.024602432785584</v>
       </c>
       <c r="D15">
-        <v>0.9776004712578997</v>
+        <v>1.028754370492156</v>
       </c>
       <c r="E15">
-        <v>0.9605462605990408</v>
+        <v>1.025022046144831</v>
       </c>
       <c r="F15">
-        <v>0.9551735807356925</v>
+        <v>1.033157729166765</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025662009739458</v>
+        <v>1.031916150797162</v>
       </c>
       <c r="J15">
-        <v>0.9780354571225098</v>
+        <v>1.031216195496966</v>
       </c>
       <c r="K15">
-        <v>0.992883188602764</v>
+        <v>1.032332638394576</v>
       </c>
       <c r="L15">
-        <v>0.9761763325605128</v>
+        <v>1.028614357196014</v>
       </c>
       <c r="M15">
-        <v>0.9709164836909979</v>
+        <v>1.036719573493738</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9525543143292061</v>
+        <v>1.025580281065294</v>
       </c>
       <c r="D16">
-        <v>0.9821221983738835</v>
+        <v>1.029477794726655</v>
       </c>
       <c r="E16">
-        <v>0.9656402257716107</v>
+        <v>1.025866247957558</v>
       </c>
       <c r="F16">
-        <v>0.9614868292119189</v>
+        <v>1.034205242417566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027865091081488</v>
+        <v>1.032187296488926</v>
       </c>
       <c r="J16">
-        <v>0.982702292754968</v>
+        <v>1.031969445428644</v>
       </c>
       <c r="K16">
-        <v>0.9967842707273722</v>
+        <v>1.032938714776952</v>
       </c>
       <c r="L16">
-        <v>0.9806202657085951</v>
+        <v>1.029340270869527</v>
       </c>
       <c r="M16">
-        <v>0.9765492574205201</v>
+        <v>1.037649163692839</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9563091330896062</v>
+        <v>1.026192851174148</v>
       </c>
       <c r="D17">
-        <v>0.9848908990726072</v>
+        <v>1.029930843939386</v>
       </c>
       <c r="E17">
-        <v>0.9687600087050622</v>
+        <v>1.026395139460786</v>
       </c>
       <c r="F17">
-        <v>0.9653503381316891</v>
+        <v>1.034861561473141</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029208112574336</v>
+        <v>1.032356491232462</v>
       </c>
       <c r="J17">
-        <v>0.9855563841764291</v>
+        <v>1.032441051077668</v>
       </c>
       <c r="K17">
-        <v>0.9991691354142279</v>
+        <v>1.033317972732018</v>
       </c>
       <c r="L17">
-        <v>0.9833388950443033</v>
+        <v>1.029794798228848</v>
       </c>
       <c r="M17">
-        <v>0.9799944589450342</v>
+        <v>1.038231374077704</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9584666475956877</v>
+        <v>1.026549865640219</v>
       </c>
       <c r="D18">
-        <v>0.9864826875898376</v>
+        <v>1.030194837313329</v>
       </c>
       <c r="E18">
-        <v>0.9705539193940673</v>
+        <v>1.026703400337533</v>
       </c>
       <c r="F18">
-        <v>0.9675709055765057</v>
+        <v>1.035244112254766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029978110146391</v>
+        <v>1.032454860992907</v>
       </c>
       <c r="J18">
-        <v>0.9871960709321724</v>
+        <v>1.032715813628344</v>
       </c>
       <c r="K18">
-        <v>1.000538899346</v>
+        <v>1.033538859153371</v>
       </c>
       <c r="L18">
-        <v>0.9849010550196569</v>
+        <v>1.030059624013455</v>
       </c>
       <c r="M18">
-        <v>0.9819739140853717</v>
+        <v>1.03857064815988</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9591969376387648</v>
+        <v>1.026671549986125</v>
       </c>
       <c r="D19">
-        <v>0.9870216303023897</v>
+        <v>1.030284807935947</v>
       </c>
       <c r="E19">
-        <v>0.9711613454515078</v>
+        <v>1.026808470169364</v>
       </c>
       <c r="F19">
-        <v>0.9683226390806164</v>
+        <v>1.03537450695501</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030238451458701</v>
+        <v>1.032488348606146</v>
       </c>
       <c r="J19">
-        <v>0.9877510326689486</v>
+        <v>1.032809447064336</v>
       </c>
       <c r="K19">
-        <v>1.0010024427961</v>
+        <v>1.033614120250841</v>
       </c>
       <c r="L19">
-        <v>0.9854298266312232</v>
+        <v>1.030149873445198</v>
       </c>
       <c r="M19">
-        <v>0.9826439053853838</v>
+        <v>1.038686278043967</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.955909688992265</v>
+        <v>1.026127158006584</v>
       </c>
       <c r="D20">
-        <v>0.9845962645791616</v>
+        <v>1.029882263262796</v>
       </c>
       <c r="E20">
-        <v>0.96842798516609</v>
+        <v>1.026338418535402</v>
       </c>
       <c r="F20">
-        <v>0.9649392687945879</v>
+        <v>1.034791172571873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029065415596215</v>
+        <v>1.032338371228029</v>
       </c>
       <c r="J20">
-        <v>0.985252788086048</v>
+        <v>1.032390485116323</v>
       </c>
       <c r="K20">
-        <v>0.9989154879991914</v>
+        <v>1.033277315957499</v>
       </c>
       <c r="L20">
-        <v>0.9830496772314626</v>
+        <v>1.029746062046677</v>
       </c>
       <c r="M20">
-        <v>0.9796279679777656</v>
+        <v>1.038168941536094</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9448262404270238</v>
+        <v>1.024353882263015</v>
       </c>
       <c r="D21">
-        <v>0.9764303657076351</v>
+        <v>1.028570447587394</v>
       </c>
       <c r="E21">
-        <v>0.9592282705653211</v>
+        <v>1.024807479811335</v>
       </c>
       <c r="F21">
-        <v>0.9535390818718614</v>
+        <v>1.03289150427732</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025090025265994</v>
+        <v>1.031847025915259</v>
       </c>
       <c r="J21">
-        <v>0.976826662742782</v>
+        <v>1.031024651788276</v>
       </c>
       <c r="K21">
-        <v>0.9918724666759954</v>
+        <v>1.032178456781019</v>
       </c>
       <c r="L21">
-        <v>0.9750255562337828</v>
+        <v>1.028429776205473</v>
       </c>
       <c r="M21">
-        <v>0.9694575768800408</v>
+        <v>1.036483249532287</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9375220306921941</v>
+        <v>1.023236279578773</v>
       </c>
       <c r="D22">
-        <v>0.9710595911272564</v>
+        <v>1.027743236398251</v>
       </c>
       <c r="E22">
-        <v>0.9531795223689987</v>
+        <v>1.023842755926359</v>
       </c>
       <c r="F22">
-        <v>0.9460320080290734</v>
+        <v>1.031694592091067</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022455186196518</v>
+        <v>1.031535199345163</v>
       </c>
       <c r="J22">
-        <v>0.9712723155700662</v>
+        <v>1.0301629769571</v>
       </c>
       <c r="K22">
-        <v>0.9872270219295355</v>
+        <v>1.031484550629257</v>
       </c>
       <c r="L22">
-        <v>0.9697392837265674</v>
+        <v>1.027599479985435</v>
       </c>
       <c r="M22">
-        <v>0.9627541478045224</v>
+        <v>1.035420427492057</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9414281795089415</v>
+        <v>1.023828999520371</v>
       </c>
       <c r="D23">
-        <v>0.9739306570545276</v>
+        <v>1.028181988835758</v>
       </c>
       <c r="E23">
-        <v>0.9564128618803851</v>
+        <v>1.024354382482255</v>
       </c>
       <c r="F23">
-        <v>0.9500460844353706</v>
+        <v>1.03232934078318</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023865592330549</v>
+        <v>1.031700780567696</v>
       </c>
       <c r="J23">
-        <v>0.9742427376408483</v>
+        <v>1.030620047151394</v>
       </c>
       <c r="K23">
-        <v>0.9897116078617579</v>
+        <v>1.031852691230868</v>
       </c>
       <c r="L23">
-        <v>0.972566038618317</v>
+        <v>1.028039894177052</v>
       </c>
       <c r="M23">
-        <v>0.9663390725775783</v>
+        <v>1.035984134250222</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9560902809186769</v>
+        <v>1.026156842809101</v>
       </c>
       <c r="D24">
-        <v>0.9847294684663769</v>
+        <v>1.029904215590868</v>
       </c>
       <c r="E24">
-        <v>0.9685780917262599</v>
+        <v>1.026364048998855</v>
       </c>
       <c r="F24">
-        <v>0.9651251147238027</v>
+        <v>1.034822979117782</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029129935361707</v>
+        <v>1.03234655986279</v>
       </c>
       <c r="J24">
-        <v>0.9853900472030086</v>
+        <v>1.032413334677392</v>
       </c>
       <c r="K24">
-        <v>0.9990301658672386</v>
+        <v>1.033295688018453</v>
       </c>
       <c r="L24">
-        <v>0.9831804348516923</v>
+        <v>1.029768084732949</v>
       </c>
       <c r="M24">
-        <v>0.9797936620089722</v>
+        <v>1.038197153101181</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9718393486579376</v>
+        <v>1.028846947426361</v>
       </c>
       <c r="D25">
-        <v>0.9963621016783205</v>
+        <v>1.031892491426988</v>
       </c>
       <c r="E25">
-        <v>0.9816934099670519</v>
+        <v>1.028687064456735</v>
       </c>
       <c r="F25">
-        <v>0.981344703820773</v>
+        <v>1.037706200489215</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034719595756749</v>
+        <v>1.033083463583557</v>
       </c>
       <c r="J25">
-        <v>0.997353072363931</v>
+        <v>1.034481940473025</v>
       </c>
       <c r="K25">
-        <v>1.009017155062844</v>
+        <v>1.034957351748993</v>
       </c>
       <c r="L25">
-        <v>0.9945827192570974</v>
+        <v>1.031762116754378</v>
       </c>
       <c r="M25">
-        <v>0.994239691356918</v>
+        <v>1.040752751152218</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_96/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030983958090182</v>
+        <v>0.9835558425890103</v>
       </c>
       <c r="D2">
-        <v>1.03347033734724</v>
+        <v>1.005033639623518</v>
       </c>
       <c r="E2">
-        <v>1.030532910884496</v>
+        <v>0.9914813558658753</v>
       </c>
       <c r="F2">
-        <v>1.039997854721432</v>
+        <v>0.9934283452906613</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033661287413532</v>
+        <v>1.038822149453216</v>
       </c>
       <c r="J2">
-        <v>1.036122189260779</v>
+        <v>1.006239771972936</v>
       </c>
       <c r="K2">
-        <v>1.036272593964152</v>
+        <v>1.016423290477775</v>
       </c>
       <c r="L2">
-        <v>1.033343647888147</v>
+        <v>1.003060658691754</v>
       </c>
       <c r="M2">
-        <v>1.042781452545054</v>
+        <v>1.004979999354938</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032530844451919</v>
+        <v>0.9916433499634483</v>
       </c>
       <c r="D3">
-        <v>1.034611496746893</v>
+        <v>1.011025699906121</v>
       </c>
       <c r="E3">
-        <v>1.031869280047802</v>
+        <v>0.9982523865150809</v>
       </c>
       <c r="F3">
-        <v>1.041657398511187</v>
+        <v>1.001778751520502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034075149783619</v>
+        <v>1.041619995248687</v>
       </c>
       <c r="J3">
-        <v>1.037307716553154</v>
+        <v>1.012364447412602</v>
       </c>
       <c r="K3">
-        <v>1.037221853781275</v>
+        <v>1.021519422122426</v>
       </c>
       <c r="L3">
-        <v>1.034486974139655</v>
+        <v>1.008907677328159</v>
       </c>
       <c r="M3">
-        <v>1.044249094984181</v>
+        <v>1.012388923370021</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033529646683626</v>
+        <v>0.9967018645709853</v>
       </c>
       <c r="D4">
-        <v>1.03534786854517</v>
+        <v>1.014775471643582</v>
       </c>
       <c r="E4">
-        <v>1.032732261303948</v>
+        <v>1.002493437072272</v>
       </c>
       <c r="F4">
-        <v>1.042729275299207</v>
+        <v>1.007005964705532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03434033643093</v>
+        <v>1.043353720403897</v>
       </c>
       <c r="J4">
-        <v>1.038072369692495</v>
+        <v>1.016190314921127</v>
       </c>
       <c r="K4">
-        <v>1.037833483536125</v>
+        <v>1.024698781392416</v>
       </c>
       <c r="L4">
-        <v>1.035224517963617</v>
+        <v>1.012561861373253</v>
       </c>
       <c r="M4">
-        <v>1.04519634062249</v>
+        <v>1.017020562958495</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033949041696737</v>
+        <v>0.9987892481806694</v>
       </c>
       <c r="D5">
-        <v>1.035656958549479</v>
+        <v>1.01632312013967</v>
       </c>
       <c r="E5">
-        <v>1.03309465012475</v>
+        <v>1.004244811217547</v>
       </c>
       <c r="F5">
-        <v>1.043179434140056</v>
+        <v>1.009163969046256</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034451199188477</v>
+        <v>1.044065162830265</v>
       </c>
       <c r="J5">
-        <v>1.038393247996775</v>
+        <v>1.017767786812636</v>
       </c>
       <c r="K5">
-        <v>1.038089995106867</v>
+        <v>1.02600868836183</v>
       </c>
       <c r="L5">
-        <v>1.035534046409349</v>
+        <v>1.014068952128009</v>
       </c>
       <c r="M5">
-        <v>1.045593993815399</v>
+        <v>1.018931178807903</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034019430851429</v>
+        <v>0.999137500270422</v>
       </c>
       <c r="D6">
-        <v>1.035708828117649</v>
+        <v>1.016581339195575</v>
       </c>
       <c r="E6">
-        <v>1.033155473073588</v>
+        <v>1.004537078832888</v>
       </c>
       <c r="F6">
-        <v>1.043254991236681</v>
+        <v>1.009524062120344</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034469777166203</v>
+        <v>1.04418362154074</v>
       </c>
       <c r="J6">
-        <v>1.038447090974308</v>
+        <v>1.018030890555336</v>
       </c>
       <c r="K6">
-        <v>1.038133028487198</v>
+        <v>1.026227105697092</v>
       </c>
       <c r="L6">
-        <v>1.035585986434168</v>
+        <v>1.014320340658448</v>
       </c>
       <c r="M6">
-        <v>1.045660728460563</v>
+        <v>1.019249902220859</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033535252618239</v>
+        <v>0.9967299071392278</v>
       </c>
       <c r="D7">
-        <v>1.035352000501901</v>
+        <v>1.014796262175011</v>
       </c>
       <c r="E7">
-        <v>1.032737105156614</v>
+        <v>1.00251696051843</v>
       </c>
       <c r="F7">
-        <v>1.042735292130592</v>
+        <v>1.007034952042561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034341820223596</v>
+        <v>1.043363293987944</v>
       </c>
       <c r="J7">
-        <v>1.038076659561133</v>
+        <v>1.016211512273192</v>
       </c>
       <c r="K7">
-        <v>1.037836913475565</v>
+        <v>1.024716387329569</v>
       </c>
       <c r="L7">
-        <v>1.035228655991103</v>
+        <v>1.012582111381777</v>
       </c>
       <c r="M7">
-        <v>1.045201656307148</v>
+        <v>1.017046233266932</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031507184081532</v>
+        <v>0.9863268580824283</v>
       </c>
       <c r="D8">
-        <v>1.03385642266178</v>
+        <v>1.007086200223707</v>
       </c>
       <c r="E8">
-        <v>1.03098490787937</v>
+        <v>0.9937999740862716</v>
       </c>
       <c r="F8">
-        <v>1.040559117484386</v>
+        <v>0.9962885259257872</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033801696443236</v>
+        <v>1.039784163632519</v>
       </c>
       <c r="J8">
-        <v>1.036523358187136</v>
+        <v>1.008339263101858</v>
       </c>
       <c r="K8">
-        <v>1.036593943748866</v>
+        <v>1.018171032411277</v>
       </c>
       <c r="L8">
-        <v>1.033730513620602</v>
+        <v>1.005064588835425</v>
       </c>
       <c r="M8">
-        <v>1.043277955587042</v>
+        <v>1.007519007307734</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02791664998768</v>
+        <v>0.966526179363228</v>
       </c>
       <c r="D9">
-        <v>1.031205151903587</v>
+        <v>0.9924343027488662</v>
       </c>
       <c r="E9">
-        <v>1.027883642375357</v>
+        <v>0.9772633563729447</v>
       </c>
       <c r="F9">
-        <v>1.036708928402297</v>
+        <v>0.9758699928770401</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03282979874303</v>
+        <v>1.032842541272214</v>
       </c>
       <c r="J9">
-        <v>1.033767041934384</v>
+        <v>0.9933189978390878</v>
       </c>
       <c r="K9">
-        <v>1.034383450839383</v>
+        <v>1.005651332457619</v>
       </c>
       <c r="L9">
-        <v>1.03107292608104</v>
+        <v>0.9907364154742804</v>
       </c>
       <c r="M9">
-        <v>1.03986919529738</v>
+        <v>0.9893670830763575</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025511015586109</v>
+        <v>0.9521254420077621</v>
       </c>
       <c r="D10">
-        <v>1.029426560094022</v>
+        <v>0.9818060895525171</v>
       </c>
       <c r="E10">
-        <v>1.025806446434117</v>
+        <v>0.9652840691538817</v>
       </c>
       <c r="F10">
-        <v>1.034131035340712</v>
+        <v>0.9610456253745453</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032168132644772</v>
+        <v>1.027711462057856</v>
       </c>
       <c r="J10">
-        <v>1.03191610633589</v>
+        <v>0.9823762672111167</v>
       </c>
       <c r="K10">
-        <v>1.032895810379664</v>
+        <v>0.9965117988220188</v>
       </c>
       <c r="L10">
-        <v>1.029288865143229</v>
+        <v>0.9803097557064847</v>
       </c>
       <c r="M10">
-        <v>1.037583324822665</v>
+        <v>0.9761557297836384</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024466373482248</v>
+        <v>0.9455472587318833</v>
       </c>
       <c r="D11">
-        <v>1.028653691150027</v>
+        <v>0.9769610100037139</v>
       </c>
       <c r="E11">
-        <v>1.024904589467655</v>
+        <v>0.9598259716818521</v>
       </c>
       <c r="F11">
-        <v>1.033011993070014</v>
+        <v>0.9542803720633191</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031878321269049</v>
+        <v>1.025349514586958</v>
       </c>
       <c r="J11">
-        <v>1.031111346425617</v>
+        <v>0.9773749103966349</v>
       </c>
       <c r="K11">
-        <v>1.032248244067888</v>
+        <v>0.9923308916340614</v>
       </c>
       <c r="L11">
-        <v>1.028513318877577</v>
+        <v>0.9755474754984647</v>
       </c>
       <c r="M11">
-        <v>1.036590209124823</v>
+        <v>0.9701192598062947</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024077885819451</v>
+        <v>0.9430464582380574</v>
       </c>
       <c r="D12">
-        <v>1.028366195528604</v>
+        <v>0.9751208701698667</v>
       </c>
       <c r="E12">
-        <v>1.024569226801413</v>
+        <v>0.9577533561862454</v>
       </c>
       <c r="F12">
-        <v>1.032595897349333</v>
+        <v>0.9517094521910562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031770171827752</v>
+        <v>1.024449013994903</v>
       </c>
       <c r="J12">
-        <v>1.030811918678439</v>
+        <v>0.9754733154358798</v>
       </c>
       <c r="K12">
-        <v>1.032007189550397</v>
+        <v>0.9907407578649922</v>
       </c>
       <c r="L12">
-        <v>1.028224781420289</v>
+        <v>0.9737373023172824</v>
       </c>
       <c r="M12">
-        <v>1.036220811077866</v>
+        <v>0.9678242323044759</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024161238806415</v>
+        <v>0.9435855899814776</v>
       </c>
       <c r="D13">
-        <v>1.028427883345573</v>
+        <v>0.9755174878331612</v>
       </c>
       <c r="E13">
-        <v>1.024641180259093</v>
+        <v>0.9582000668286066</v>
       </c>
       <c r="F13">
-        <v>1.032685171129838</v>
+        <v>0.9522636549911863</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031793392967033</v>
+        <v>1.024643260458778</v>
       </c>
       <c r="J13">
-        <v>1.030876169909632</v>
+        <v>0.9758832766053838</v>
       </c>
       <c r="K13">
-        <v>1.032058920195219</v>
+        <v>0.9910835924760085</v>
       </c>
       <c r="L13">
-        <v>1.028286694872373</v>
+        <v>0.974127529849464</v>
       </c>
       <c r="M13">
-        <v>1.03630007151617</v>
+        <v>0.9683190090807646</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024434270448638</v>
+        <v>0.9453417497198028</v>
       </c>
       <c r="D14">
-        <v>1.028629935239421</v>
+        <v>0.9768097540068102</v>
       </c>
       <c r="E14">
-        <v>1.024876875946869</v>
+        <v>0.9596556001719253</v>
       </c>
       <c r="F14">
-        <v>1.032977607390536</v>
+        <v>0.9540690804345424</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031869391837529</v>
+        <v>1.025275564971032</v>
       </c>
       <c r="J14">
-        <v>1.031086605972583</v>
+        <v>0.977218646495046</v>
       </c>
       <c r="K14">
-        <v>1.032228329068836</v>
+        <v>0.9922002315402123</v>
       </c>
       <c r="L14">
-        <v>1.028489477819896</v>
+        <v>0.9753987134011204</v>
       </c>
       <c r="M14">
-        <v>1.036559685054504</v>
+        <v>0.9699306636187053</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024602432785584</v>
+        <v>0.9464159825537404</v>
       </c>
       <c r="D15">
-        <v>1.028754370492156</v>
+        <v>0.9776004712578993</v>
       </c>
       <c r="E15">
-        <v>1.025022046144831</v>
+        <v>0.9605462605990402</v>
       </c>
       <c r="F15">
-        <v>1.033157729166765</v>
+        <v>0.9551735807356925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031916150797162</v>
+        <v>1.025662009739458</v>
       </c>
       <c r="J15">
-        <v>1.031216195496966</v>
+        <v>0.9780354571225094</v>
       </c>
       <c r="K15">
-        <v>1.032332638394576</v>
+        <v>0.9928831886027637</v>
       </c>
       <c r="L15">
-        <v>1.028614357196014</v>
+        <v>0.9761763325605123</v>
       </c>
       <c r="M15">
-        <v>1.036719573493738</v>
+        <v>0.970916483690998</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025580281065294</v>
+        <v>0.9525543143292045</v>
       </c>
       <c r="D16">
-        <v>1.029477794726655</v>
+        <v>0.9821221983738821</v>
       </c>
       <c r="E16">
-        <v>1.025866247957558</v>
+        <v>0.9656402257716088</v>
       </c>
       <c r="F16">
-        <v>1.034205242417566</v>
+        <v>0.961486829211918</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032187296488926</v>
+        <v>1.027865091081488</v>
       </c>
       <c r="J16">
-        <v>1.031969445428644</v>
+        <v>0.9827022927549663</v>
       </c>
       <c r="K16">
-        <v>1.032938714776952</v>
+        <v>0.9967842707273709</v>
       </c>
       <c r="L16">
-        <v>1.029340270869527</v>
+        <v>0.9806202657085931</v>
       </c>
       <c r="M16">
-        <v>1.037649163692839</v>
+        <v>0.9765492574205192</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026192851174148</v>
+        <v>0.9563091330896051</v>
       </c>
       <c r="D17">
-        <v>1.029930843939386</v>
+        <v>0.9848908990726062</v>
       </c>
       <c r="E17">
-        <v>1.026395139460786</v>
+        <v>0.9687600087050613</v>
       </c>
       <c r="F17">
-        <v>1.034861561473141</v>
+        <v>0.9653503381316882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032356491232462</v>
+        <v>1.029208112574335</v>
       </c>
       <c r="J17">
-        <v>1.032441051077668</v>
+        <v>0.9855563841764281</v>
       </c>
       <c r="K17">
-        <v>1.033317972732018</v>
+        <v>0.999169135414227</v>
       </c>
       <c r="L17">
-        <v>1.029794798228848</v>
+        <v>0.9833388950443023</v>
       </c>
       <c r="M17">
-        <v>1.038231374077704</v>
+        <v>0.9799944589450333</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026549865640219</v>
+        <v>0.9584666475956897</v>
       </c>
       <c r="D18">
-        <v>1.030194837313329</v>
+        <v>0.9864826875898391</v>
       </c>
       <c r="E18">
-        <v>1.026703400337533</v>
+        <v>0.9705539193940689</v>
       </c>
       <c r="F18">
-        <v>1.035244112254766</v>
+        <v>0.9675709055765074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032454860992907</v>
+        <v>1.029978110146392</v>
       </c>
       <c r="J18">
-        <v>1.032715813628344</v>
+        <v>0.9871960709321742</v>
       </c>
       <c r="K18">
-        <v>1.033538859153371</v>
+        <v>1.000538899346002</v>
       </c>
       <c r="L18">
-        <v>1.030059624013455</v>
+        <v>0.9849010550196584</v>
       </c>
       <c r="M18">
-        <v>1.03857064815988</v>
+        <v>0.9819739140853733</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026671549986125</v>
+        <v>0.9591969376387632</v>
       </c>
       <c r="D19">
-        <v>1.030284807935947</v>
+        <v>0.9870216303023879</v>
       </c>
       <c r="E19">
-        <v>1.026808470169364</v>
+        <v>0.9711613454515061</v>
       </c>
       <c r="F19">
-        <v>1.03537450695501</v>
+        <v>0.9683226390806149</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032488348606146</v>
+        <v>1.0302384514587</v>
       </c>
       <c r="J19">
-        <v>1.032809447064336</v>
+        <v>0.9877510326689469</v>
       </c>
       <c r="K19">
-        <v>1.033614120250841</v>
+        <v>1.001002442796098</v>
       </c>
       <c r="L19">
-        <v>1.030149873445198</v>
+        <v>0.9854298266312218</v>
       </c>
       <c r="M19">
-        <v>1.038686278043967</v>
+        <v>0.9826439053853824</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026127158006584</v>
+        <v>0.955909688992266</v>
       </c>
       <c r="D20">
-        <v>1.029882263262796</v>
+        <v>0.9845962645791622</v>
       </c>
       <c r="E20">
-        <v>1.026338418535402</v>
+        <v>0.9684279851660902</v>
       </c>
       <c r="F20">
-        <v>1.034791172571873</v>
+        <v>0.9649392687945889</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032338371228029</v>
+        <v>1.029065415596216</v>
       </c>
       <c r="J20">
-        <v>1.032390485116323</v>
+        <v>0.9852527880860484</v>
       </c>
       <c r="K20">
-        <v>1.033277315957499</v>
+        <v>0.9989154879991919</v>
       </c>
       <c r="L20">
-        <v>1.029746062046677</v>
+        <v>0.983049677231463</v>
       </c>
       <c r="M20">
-        <v>1.038168941536094</v>
+        <v>0.9796279679777665</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024353882263015</v>
+        <v>0.9448262404270216</v>
       </c>
       <c r="D21">
-        <v>1.028570447587394</v>
+        <v>0.9764303657076334</v>
       </c>
       <c r="E21">
-        <v>1.024807479811335</v>
+        <v>0.9592282705653192</v>
       </c>
       <c r="F21">
-        <v>1.03289150427732</v>
+        <v>0.9535390818718595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031847025915259</v>
+        <v>1.025090025265994</v>
       </c>
       <c r="J21">
-        <v>1.031024651788276</v>
+        <v>0.9768266627427798</v>
       </c>
       <c r="K21">
-        <v>1.032178456781019</v>
+        <v>0.9918724666759938</v>
       </c>
       <c r="L21">
-        <v>1.028429776205473</v>
+        <v>0.9750255562337808</v>
       </c>
       <c r="M21">
-        <v>1.036483249532287</v>
+        <v>0.969457576880039</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023236279578773</v>
+        <v>0.9375220306921933</v>
       </c>
       <c r="D22">
-        <v>1.027743236398251</v>
+        <v>0.9710595911272558</v>
       </c>
       <c r="E22">
-        <v>1.023842755926359</v>
+        <v>0.9531795223689977</v>
       </c>
       <c r="F22">
-        <v>1.031694592091067</v>
+        <v>0.9460320080290731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031535199345163</v>
+        <v>1.022455186196518</v>
       </c>
       <c r="J22">
-        <v>1.0301629769571</v>
+        <v>0.9712723155700654</v>
       </c>
       <c r="K22">
-        <v>1.031484550629257</v>
+        <v>0.9872270219295349</v>
       </c>
       <c r="L22">
-        <v>1.027599479985435</v>
+        <v>0.9697392837265667</v>
       </c>
       <c r="M22">
-        <v>1.035420427492057</v>
+        <v>0.962754147804522</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023828999520371</v>
+        <v>0.9414281795089406</v>
       </c>
       <c r="D23">
-        <v>1.028181988835758</v>
+        <v>0.973930657054527</v>
       </c>
       <c r="E23">
-        <v>1.024354382482255</v>
+        <v>0.9564128618803843</v>
       </c>
       <c r="F23">
-        <v>1.03232934078318</v>
+        <v>0.9500460844353694</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031700780567696</v>
+        <v>1.023865592330548</v>
       </c>
       <c r="J23">
-        <v>1.030620047151394</v>
+        <v>0.9742427376408475</v>
       </c>
       <c r="K23">
-        <v>1.031852691230868</v>
+        <v>0.989711607861757</v>
       </c>
       <c r="L23">
-        <v>1.028039894177052</v>
+        <v>0.9725660386183164</v>
       </c>
       <c r="M23">
-        <v>1.035984134250222</v>
+        <v>0.9663390725775771</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026156842809101</v>
+        <v>0.9560902809186764</v>
       </c>
       <c r="D24">
-        <v>1.029904215590868</v>
+        <v>0.9847294684663762</v>
       </c>
       <c r="E24">
-        <v>1.026364048998855</v>
+        <v>0.9685780917262591</v>
       </c>
       <c r="F24">
-        <v>1.034822979117782</v>
+        <v>0.9651251147238026</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03234655986279</v>
+        <v>1.029129935361707</v>
       </c>
       <c r="J24">
-        <v>1.032413334677392</v>
+        <v>0.985390047203008</v>
       </c>
       <c r="K24">
-        <v>1.033295688018453</v>
+        <v>0.999030165867238</v>
       </c>
       <c r="L24">
-        <v>1.029768084732949</v>
+        <v>0.9831804348516916</v>
       </c>
       <c r="M24">
-        <v>1.038197153101181</v>
+        <v>0.9797936620089719</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028846947426361</v>
+        <v>0.9718393486579382</v>
       </c>
       <c r="D25">
-        <v>1.031892491426988</v>
+        <v>0.9963621016783212</v>
       </c>
       <c r="E25">
-        <v>1.028687064456735</v>
+        <v>0.9816934099670528</v>
       </c>
       <c r="F25">
-        <v>1.037706200489215</v>
+        <v>0.9813447038207735</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033083463583557</v>
+        <v>1.034719595756749</v>
       </c>
       <c r="J25">
-        <v>1.034481940473025</v>
+        <v>0.9973530723639318</v>
       </c>
       <c r="K25">
-        <v>1.034957351748993</v>
+        <v>1.009017155062845</v>
       </c>
       <c r="L25">
-        <v>1.031762116754378</v>
+        <v>0.9945827192570982</v>
       </c>
       <c r="M25">
-        <v>1.040752751152218</v>
+        <v>0.9942396913569185</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
